--- a/Results/Classification/Control vs Atypical/Control 1 (2, 12, 10, 5, 1)/Atypical 1 (2, 6, 9, 3, 5)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
+++ b/Results/Classification/Control vs Atypical/Control 1 (2, 12, 10, 5, 1)/Atypical 1 (2, 6, 9, 3, 5)/NCDE_32nodes_Control_vs_Atypical_batchsize3_200maxITER_None_smoothing0_dropout0.0.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2335874793234083</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.2335874793234083</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.3173327494528142</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.3173327494528142</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.953227049689354E-38</v>
+        <v>0.1314683145534435</v>
       </c>
       <c r="E4">
-        <v>1.953227049689354E-38</v>
+        <v>0.1314683145534435</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.3076367367788183</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.3076367367788183</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.2809949785630151</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.2809949785630151</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.4550958698018167</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.5449041301981834</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.02178231699227287</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.9782176830077272</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.4587394875733926</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.5412605124266074</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.6481054049809666</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.3518945950190334</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.5450179765751472</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.4549820234248528</v>
       </c>
       <c r="F11">
-        <v>59.18593597412109</v>
+        <v>0.7920080423355103</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.2084977903266872</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.2084977903266872</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.1957666513813293</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.1957666513813293</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.04151338055776142</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.04151338055776142</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.1936490800145129</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1936490800145129</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.1950314156639996</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.1950314156639996</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3711061322852943</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.6288938677147058</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.002842995850197117</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.9971570041498029</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3740249317764517</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0.6259750682235483</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.6178413825779572</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.3821586174220428</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.4464085480326587</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.5535914519673413</v>
       </c>
       <c r="F21">
-        <v>73.23921966552734</v>
+        <v>1.005191802978516</v>
       </c>
       <c r="G21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
